--- a/T04_M4_D2_support_files/T04_M4_D2_Behemoth_Only.xlsx
+++ b/T04_M4_D2_support_files/T04_M4_D2_Behemoth_Only.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Project\M4\Team_04\T04_M4_D2_support_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A60372-2AF8-4A6C-A927-BB819BD11C74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C190F8-B5B3-4BF5-BE58-28E3E9F16C7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{46F9BDAC-CC60-4E02-A65F-AB144A3B0F32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{46F9BDAC-CC60-4E02-A65F-AB144A3B0F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="117" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1466,7 +1466,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
@@ -2035,15 +2035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:colOff>629285</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2357,7 +2357,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A5029BE-5A9F-486F-859F-CD03C1A84DBC}" name="PivotTable2" cacheId="117" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A5029BE-5A9F-486F-859F-CD03C1A84DBC}" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A4:Q8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2995,30 +2995,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B7AE3-15F6-4EDA-887F-33D125CB2428}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3034,12 +3036,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>9545595.6900000013</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>77185566.608699992</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
